--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2805961.603599537</v>
+        <v>2801948.993585544</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>121.5091210367498</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>128.3344840049811</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>80.0012411808183</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>44.50256675743828</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>79.76470074482786</v>
       </c>
       <c r="E5" t="n">
-        <v>248.3489287792</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>63.81742671074127</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>206.7708203490055</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>134.0134608363797</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>121.417173950422</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>238.9171930685446</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>25.52471385612597</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>99.79417418838011</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>126.6321535627874</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>21.90286287505374</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>172.3645574474254</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>19.72264368952201</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>14.76058440587543</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576152</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
-        <v>34.67929910923817</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>21.23835815356833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3198,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3240,10 +3240,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>8.616048582070279</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>222.8161206669567</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>157.7030888155102</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>74.41917683133158</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>135.4684761590174</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216687</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>103.8146543619976</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>104.4262124629291</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1642.972675199009</v>
+        <v>2098.94140762926</v>
       </c>
       <c r="C2" t="n">
-        <v>1274.010158258597</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>915.7444596518465</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276231</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296686</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.57251526313</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y2" t="n">
-        <v>2029.57251526313</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>943.7005868594143</v>
+        <v>1075.097337786232</v>
       </c>
       <c r="C4" t="n">
-        <v>774.7644039315074</v>
+        <v>906.1611548583251</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>756.0445154459893</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>608.1314218635962</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>461.2414743656858</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>293.5386377404047</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>147.3214509582625</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V4" t="n">
-        <v>1391.09371846696</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W4" t="n">
-        <v>1391.09371846696</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="X4" t="n">
-        <v>1346.141630833184</v>
+        <v>1477.538381760002</v>
       </c>
       <c r="Y4" t="n">
-        <v>1125.349051689654</v>
+        <v>1256.745802616472</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1870.65619074133</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="C5" t="n">
-        <v>1501.693673800919</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="D5" t="n">
-        <v>1143.427975194168</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805452</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y5" t="n">
-        <v>2257.256030805452</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2408.169814362911</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>2239.233631435004</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>2089.116992022668</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>1941.203898440275</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>1794.313950942364</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>1626.611114317084</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>1509.946022399798</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>3133.919937435998</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>3133.919937435998</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>3133.919937435998</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V7" t="n">
-        <v>2879.235449230111</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>2589.81827919315</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>2589.81827919315</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>2589.81827919315</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.864437266279</v>
+        <v>1767.878520285688</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.901920325867</v>
+        <v>1398.916003345276</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1040.650304738526</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>654.8620521402815</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>243.876147350674</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.09759726723</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997116</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2139.863183736036</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.723851760224</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1612.965053864388</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1612.965053864388</v>
+        <v>1685.964050039457</v>
       </c>
       <c r="V10" t="n">
-        <v>1358.280565658501</v>
+        <v>1431.27956183357</v>
       </c>
       <c r="W10" t="n">
-        <v>1068.863395621541</v>
+        <v>1141.86239179661</v>
       </c>
       <c r="X10" t="n">
-        <v>1068.863395621541</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.0708164780106</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>119.599202296584</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1587.583657704828</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1298.166487667867</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1070.17693676985</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>849.3843576263199</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>835.5837926935558</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>666.6476097656489</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>516.5309703533131</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>368.61787677092</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>221.7279292730097</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5518,19 +5518,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5545,19 +5545,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,19 +5597,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>198.027470314254</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>198.027470314254</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3195.262992109387</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3026.32680918148</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2876.210169769145</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.297076186751</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2581.407128688841</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4115.110757018135</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3825.693586981174</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3597.704036083157</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3376.911456939627</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5977,10 +5977,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1962.551399292452</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1707.866911086565</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1418.449741049605</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.7540666811333</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2344.887784772826</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2125.286319795768</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>2125.286319795768</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1870.601831589881</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1581.18466155292</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1353.195110654903</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3025.687952571559</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>3025.687952571559</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3656.118547443346</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3428.128996545328</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3207.336417401798</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2968.622055159635</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C34" t="n">
-        <v>2799.685872231728</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D34" t="n">
-        <v>2799.685872231728</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>2651.772778649335</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>2504.882831151424</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4432.229534930071</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4143.154308274269</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V34" t="n">
-        <v>3888.469820068382</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W34" t="n">
-        <v>3599.052650031422</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X34" t="n">
-        <v>3371.063099133405</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y34" t="n">
-        <v>3150.270519989875</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6955,34 +6955,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3175.341129796739</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3006.404946868832</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2856.288307456496</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2708.375213874103</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4288.376853076439</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>4033.692364870552</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3744.275194833592</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3516.285643935575</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3356.989594626978</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.3409563819265</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3192.420589669523</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>3023.484406741616</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>4221.331149328841</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>3966.646661122954</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>3677.229491085994</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>3449.239940187977</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>3374.069054499763</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111724</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075819</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459586</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>631.7012443408905</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408905</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854707</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817746</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761984</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7639,28 +7639,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3198.117713678993</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>3029.181530751086</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>2879.064891338751</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>2731.151797756358</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>2584.261850258447</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>4151.857387650098</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>3897.172899444211</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>3607.75572940725</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>3379.766178509233</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
-        <v>3379.766178509233</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>152.3434691354479</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>38.89198472948144</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.3918499711701</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>145.8014946027468</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>271.4238899833687</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
-        <v>146.3469868924064</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>265.2846401830226</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>208.789401745218</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>63.36835372228745</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>60.88156453658462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>144.1654765207632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>31.77834493961041</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>61.70948393027128</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>114.1584408891657</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>760029.3719435266</v>
+        <v>760029.3719435268</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>760029.3719435268</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435268</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435268</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
         <v>677359.460138034</v>
@@ -26325,37 +26325,37 @@
         <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="H2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="I2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="I2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="J2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="K2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="L2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442547</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442548</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442547</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>9.129322781267673e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820628</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820629</v>
+        <v>93403.78684820641</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26441,7 +26441,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
@@ -26450,7 +26450,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852723.0129991587</v>
+        <v>-852723.0129991584</v>
       </c>
       <c r="C6" t="n">
-        <v>476021.7327284341</v>
+        <v>476021.7327284337</v>
       </c>
       <c r="D6" t="n">
-        <v>476021.7327284344</v>
+        <v>476021.7327284345</v>
       </c>
       <c r="E6" t="n">
-        <v>225144.2010361373</v>
+        <v>224796.8217817804</v>
       </c>
       <c r="F6" t="n">
-        <v>550556.6628434929</v>
+        <v>550209.2835891357</v>
       </c>
       <c r="G6" t="n">
-        <v>550556.6628434927</v>
+        <v>550209.2835891357</v>
       </c>
       <c r="H6" t="n">
-        <v>550556.6628434929</v>
+        <v>550209.2835891357</v>
       </c>
       <c r="I6" t="n">
-        <v>550556.6628434926</v>
+        <v>550209.283589136</v>
       </c>
       <c r="J6" t="n">
-        <v>333025.4604462152</v>
+        <v>332678.0811918581</v>
       </c>
       <c r="K6" t="n">
-        <v>550556.6628434927</v>
+        <v>550209.2835891356</v>
       </c>
       <c r="L6" t="n">
-        <v>550556.6628434926</v>
+        <v>550209.2835891357</v>
       </c>
       <c r="M6" t="n">
-        <v>465501.6349079807</v>
+        <v>465154.2556536237</v>
       </c>
       <c r="N6" t="n">
-        <v>550556.6628434927</v>
+        <v>550209.2835891357</v>
       </c>
       <c r="O6" t="n">
-        <v>550556.6628434927</v>
+        <v>550209.2835891356</v>
       </c>
       <c r="P6" t="n">
-        <v>550556.662843493</v>
+        <v>550209.2835891356</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,13 +26792,13 @@
         <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>243.7637707342577</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>253.5958860672807</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>16.35117922901979</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>181.2070886315989</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>274.9183408758551</v>
       </c>
       <c r="E5" t="n">
-        <v>133.5814412930618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>80.93758820357951</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.963021314475</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>276.9082648170738</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>98.13177532574718</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>47.29464513706824</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>9.003997547551988e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>9.003997547551986e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.461131202643</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32733,7 +32733,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>419.3361492447676</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,16 +33034,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33186,7 +33186,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>373.3554713800157</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>469.5567819573411</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.2560498238277</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33973,13 +33973,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>364.3208035245826</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597634</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36378,10 +36378,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>281.4947102704086</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,16 +36682,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>242.0137592966824</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>327.4227480353227</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.2742757378062</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317824</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37621,13 +37621,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>224.3390294385611</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2801948.993585544</v>
+        <v>2803709.52388833</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>75.45713216103701</v>
       </c>
       <c r="C2" t="n">
-        <v>121.5091210367498</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>80.0012411808183</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>224.7562560951387</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>223.6073936510863</v>
       </c>
       <c r="D5" t="n">
-        <v>79.76470074482786</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>134.0134608363797</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>88.36462695393426</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>52.07852635745806</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>238.9171930685446</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>25.52471385612597</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1897,10 +1897,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>20.92847288552876</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>172.3645574474254</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576152</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>212.4076860934765</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -3000,13 +3000,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>222.8161206669567</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>132.6315337216687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>104.4262124629291</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2098.94140762926</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4330,19 +4330,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.546497866152</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2489.080739605072</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2098.94140762926</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1075.097337786232</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>906.1611548583251</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>756.0445154459893</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>608.1314218635962</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>461.2414743656858</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>293.5386377404047</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>147.3214509582625</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U4" t="n">
-        <v>1705.527932658019</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V4" t="n">
-        <v>1705.527932658019</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="W4" t="n">
-        <v>1705.527932658019</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1477.538381760002</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>1256.745802616472</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1698.509627919558</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C5" t="n">
-        <v>1698.509627919558</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919558</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919558</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1600.215744761477</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.798574724517</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.809023826499</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4783,49 +4783,49 @@
         <v>1767.878520285688</v>
       </c>
       <c r="C8" t="n">
-        <v>1398.916003345276</v>
+        <v>1767.878520285688</v>
       </c>
       <c r="D8" t="n">
-        <v>1040.650304738526</v>
+        <v>1409.612821678938</v>
       </c>
       <c r="E8" t="n">
-        <v>654.8620521402815</v>
+        <v>1023.824569080694</v>
       </c>
       <c r="F8" t="n">
-        <v>243.876147350674</v>
+        <v>612.8386642910862</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>197.7662141360826</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.4317969248226</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>286.8195251357049</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>119.1166885104239</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>119.1166885104239</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1685.964050039457</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1431.27956183357</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1141.86239179661</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>913.8728408985925</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>693.0802617550623</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>414.4022433768874</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>266.4891497944943</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>119.599202296584</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5278,7 +5278,7 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5287,10 +5287,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2425.823211978716</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2242.968377633621</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6214,49 +6214,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6293,16 +6293,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6648,10 +6648,10 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
         <v>1746.193029533436</v>
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,64 +6925,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.3409563819265</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>45.44677382459292</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>63.36835372228745</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435268</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>760029.3719435268</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>760029.3719435266</v>
+        <v>760029.3719435268</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>760029.3719435266</v>
+        <v>760029.3719435267</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>760029.3719435268</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>760029.3719435268</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380336</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380338</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380334</v>
-      </c>
       <c r="D2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442549</v>
@@ -26328,34 +26328,34 @@
         <v>665895.9447442548</v>
       </c>
       <c r="G2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="H2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442546</v>
-      </c>
       <c r="K2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="L2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>9.129322781267673e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="C4" t="n">
+        <v>93403.78684820636</v>
+      </c>
+      <c r="D4" t="n">
         <v>93403.78684820639</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93403.78684820641</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26441,7 +26441,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
@@ -26450,7 +26450,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26524,46 +26524,46 @@
         <v>-852723.0129991584</v>
       </c>
       <c r="C6" t="n">
-        <v>476021.7327284337</v>
+        <v>476021.732728434</v>
       </c>
       <c r="D6" t="n">
-        <v>476021.7327284345</v>
+        <v>476021.7327284344</v>
       </c>
       <c r="E6" t="n">
-        <v>224796.8217817804</v>
+        <v>225109.4631107018</v>
       </c>
       <c r="F6" t="n">
-        <v>550209.2835891357</v>
+        <v>550521.924918057</v>
       </c>
       <c r="G6" t="n">
-        <v>550209.2835891357</v>
+        <v>550521.9249180572</v>
       </c>
       <c r="H6" t="n">
-        <v>550209.2835891357</v>
+        <v>550521.9249180569</v>
       </c>
       <c r="I6" t="n">
-        <v>550209.283589136</v>
+        <v>550521.9249180575</v>
       </c>
       <c r="J6" t="n">
-        <v>332678.0811918581</v>
+        <v>332990.7225207795</v>
       </c>
       <c r="K6" t="n">
-        <v>550209.2835891356</v>
+        <v>550521.9249180575</v>
       </c>
       <c r="L6" t="n">
-        <v>550209.2835891357</v>
+        <v>550521.924918057</v>
       </c>
       <c r="M6" t="n">
-        <v>465154.2556536237</v>
+        <v>465466.8969825448</v>
       </c>
       <c r="N6" t="n">
-        <v>550209.2835891357</v>
+        <v>550521.924918057</v>
       </c>
       <c r="O6" t="n">
-        <v>550209.2835891356</v>
+        <v>550521.924918057</v>
       </c>
       <c r="P6" t="n">
-        <v>550209.2835891356</v>
+        <v>550521.924918057</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>307.2767095024436</v>
       </c>
       <c r="C2" t="n">
-        <v>243.7637707342577</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>16.35117922901979</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>61.76674224145228</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>141.6654981199213</v>
       </c>
       <c r="D5" t="n">
-        <v>274.9183408758551</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>24.68204843992098</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>214.5414662356956</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>276.9082648170738</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>206.2431374333862</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>44.27389405238003</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>47.29464513706824</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>9.003997547551988e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>9.003997547551986e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32493,7 +32493,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32955,7 +32955,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33423,7 +33423,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36378,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317824</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
